--- a/test.xlsx
+++ b/test.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,11 +440,11 @@
     <col width="4" customWidth="1" min="2" max="2"/>
     <col width="4" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="77" customWidth="1" min="5" max="5"/>
+    <col width="82" customWidth="1" min="5" max="5"/>
     <col width="1" customWidth="1" min="6" max="6"/>
     <col width="41" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -758,7 +758,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S&amp;T + QR + Arts</t>
+          <t>Arts + QR + S&amp;T</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SA + S&amp;T</t>
+          <t>S&amp;T + SA</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1022,7 +1022,7 @@
 T043, T090: MA, Martin, T. C.
 T044: YU, Anna Po Shan
 T045, T057, T080: MAK, Linda Yeung Oi
-T046, T061, T072: TANG, Kin Hun
+T046, T061, T072: TANG, Kin
 T050, T073: CHEN, Jasmine
 T051, T074: CHEUNG, Anisa
 T053: CHAN, Thomas Anthony Chun Hun
@@ -1112,7 +1112,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1419,7 +1419,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>T01, T05, T08, T10: YUAN, Su
+          <t>T01, T08, T10: YUAN, Su
 T02: LAU, Lo
 T03 - T04, T06: ZHONG, Yin
+T05, T14: WONG, Ngam Susan
 T07, T09: SUEN, Hiu Yeung
-T13: XU, Xiufen
-T14: WONG, Ngam Susan</t>
+T13: XU, Xiufen</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C-Comm + C-Comm</t>
+          <t>C-Comm</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1627,27 +1627,27 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CTDL</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>SBM</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>What Applied Microeconomics Tells Us About Our Life and Social Policy</t>
+          <t>Cognitive Foundations of University Education: Critical Thinking and Data Literacy</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1657,454 +1657,508 @@
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>KIM, Hyuncheol Bryant</t>
+          <t>L1: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+JAISINGH, Jeevan
+LIU, Y.S. Marshal
+NAM, Sai Lok
+ZHENG, Wenjuan
+L2: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+JAISINGH, Jeevan
+MA, Lok Wang
+NAM, Sai Lok
+ZHENG, Wenjuan
+L3: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+NAM, Sai Lok
+SAUERWEIN, Meike
+VONG, Kenward
+ZHENG, Wenjuan
+L4: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+LIU, Y.S. Marshal
+NAM, Sai Lok
+SAUERWEIN, Meike
+ZHANG, Dong
+L5: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+JAISINGH, Jeevan
+MA, Lok Wang
+NAM, Sai Lok
+ZHANG, Dong
+L6: AU-YEUNG, Chapmann
+CHOY, Yee Lam
+NAM, Sai Lok
+SAUERWEIN, Meike
+VONG, Kenward
+ZHANG, Dong</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L1 - L6</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>HMW</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>1905A</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Behavioral Foundations of University Education: Habits, Mindsets, and Wellness</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>T01 - T27</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>T01, T09, T12, T18: 21
+T02 - T03, T20: 29
+T04: 30
+T05, T26: 25
+T06, T14: 34
+T07 - T08: 22
+T10 - T11: 24
+T13, T15 - T16, T19, T21: 27
+T17: 23
+T22: 20
+T23: 36
+T24: 35
+T25, T27: 26</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>HMW</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>1905B</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>Behavioral Foundations of University Education: Habits, Mindsets, and Wellness</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>T01 - T36</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>HMW</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>1905C</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>Behavioral Foundations of University Education: Habits, Mindsets, and Wellness</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>HUANG, Allen Hao</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>T01 - T08</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>T01: 189
+T02: 85
+T03: 136
+T04: 188
+T05: 159
+T06: 174
+T07: 17
+T08: 33</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>HMW</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>1905D</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Behavioral Foundations of University Education: Habits, Mindsets, and Wellness</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>WONG, James K.</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>T01</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>HMW</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1905E</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>Behavioral Foundations of University Education: Habits, Mindsets, and Wellness</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>SAUERWEIN, Meike</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>T01</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>SBM</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>ECON</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>What Applied Microeconomics Tells Us About Our Life and Social Policy</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>KIM, Hyuncheol Bryant</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>SBM</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>ECON</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>2103</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>Principles of Microeconomics</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>L1 - L2: SIU, Kam Wing
 L3: YU, Yan</t>
         </is>
       </c>
-      <c r="H24" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>L1 - L3</t>
         </is>
       </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>L1: 275
 L2: 65
 L3: 69</t>
         </is>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J30" s="2" t="n">
         <v>409</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>SBM</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>ECON</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>2123</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>Macroeconomics</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>L01, L07, L09: YUEN, Chi Wa
 L02 - L05: ZHANG, Wenwen
 L06, L08: DORDAL CARRERAS, Marc</t>
         </is>
       </c>
-      <c r="H25" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>L01 - L09</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>L01, L04, L07 - L09: 55
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>L01, L04, L07 - L08: 55
 L02, L05: 60
-L03, L06: 56</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T-SSC</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>SENG</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>ELEC</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>Electronic and Information Technology</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>ZHANG, Jun</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T-SSC</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>SENG</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>ENGG</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Information Technology Revolution: Past, Present and Future</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>WONG, Kai Sun Albert</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>SENG</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>ENGG</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>Design Thinking for Health Innovation</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>ABEYNAYAKE, H.I. Malinda M.</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>JS</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>ENTR</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>Entrepreneurship 1001: Building Your Own Future</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>HUANG, Erwin</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>IPO</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>ENVR</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>Climate Change Impacts and Extreme Weather Events</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>IM, Eun Soon</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;T</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>IPO</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>ENVR</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>Urban Air Pollution</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>GU, Dasa</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
+L03, L06, L09: 56</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>60</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>S&amp;T-SSC</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>SBM</t>
+          <t>SENG</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>FINA</t>
+          <t>ELEC</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Introduction to Financial Markets</t>
+          <t>Electronic and Information Technology</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2114,7 +2168,7 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>LAFON-VINAIS, Veronique J A</t>
+          <t>ZHANG, Jun</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
@@ -2124,95 +2178,395 @@
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HLTH</t>
+          <t>S&amp;T-SSC</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>DSTO</t>
+          <t>SENG</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>HLTH</t>
+          <t>ENGG</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>Healthy Lifestyle</t>
+          <t>Information Technology Revolution: Past, Present and Future</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>TBA</t>
+          <t>WONG, Kai Sun Albert</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>S&amp;T</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SENG</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>ENGG</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>Design Thinking for Health Innovation</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>ABEYNAYAKE, H.I. Malinda M.</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>ENTR</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>Entrepreneurship 1001: Building Your Own Future</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>HUANG, Erwin</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>IPO</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>ENVR</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>Climate Change Impacts and Extreme Weather Events</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>IM, Eun Soon</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>IPO</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>ENVR</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Urban Air Pollution</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>GU, Dasa</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SBM</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>FINA</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Introduction to Financial Markets</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>LAFON-VINAIS, Veronique J A</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>HLTH</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>DSTO</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>HLTH</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>Healthy Lifestyle</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
           <t>H-SSC</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>HUMA</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D40" s="1" t="inlineStr">
         <is>
           <t>1000A</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>Cultures and Values: Language, Communication and Society</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>L1: LAM, Christie
 PAN, Ping
@@ -2221,427 +2575,127 @@
 PUN, Wing Man Winnie</t>
         </is>
       </c>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>L1 - L2</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>L1: 400
 L2: 60</t>
         </is>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J40" s="2" t="n">
         <v>460</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>H-SSC</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>HUMA</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>1000B</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>Cultures and Values: Righteousness, Destiny and Well-being</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>LAU, Chun Hong
 NAM, Sai Lok</t>
         </is>
       </c>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I41" s="5" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J41" s="2" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>H-SSC</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>HUMA</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D42" s="1" t="inlineStr">
         <is>
           <t>1001B</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>Foundational Texts in the Humanities: The Four Books - Zhu Xi's Reading</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>CHAN, Charles Wing Hoi
 LAW, Chun Yin</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I36" s="5" t="inlineStr">
+      <c r="I42" s="5" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J42" s="2" t="n">
         <v>400</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>1030</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>Structure of the Chinese Language</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>YIU, Yuk Man Carine</t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>H + Arts</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>Music of the World</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>DUJUNCO, Mercedes Maria</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>L1 - L2</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>H + Arts</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>Enjoyment of Classical Music</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>KAILA, Ilari</t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>Chinese Women on Screen</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>DU, Daisy Yan</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I40" s="5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>1430</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>History of P. R. China's Diplomacy, 1949-1989</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>TBA</t>
-        </is>
-      </c>
-      <c r="H41" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I41" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>Modern China</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>ZHANG, Lok Cheung Lawrence</t>
-        </is>
-      </c>
-      <c r="H42" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I42" s="5" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>H + Arts</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -2656,12 +2710,12 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>Enjoyment of Western Opera</t>
+          <t>Structure of the Chinese Language</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
@@ -2671,7 +2725,7 @@
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>DROSCHA, Isaac David</t>
+          <t>YIU, Yuk Man Carine</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
@@ -2681,11 +2735,11 @@
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J43" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -2706,12 +2760,12 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>Music Theory I: Introduction to Tonal Music</t>
+          <t>Music of the World</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
@@ -2721,21 +2775,21 @@
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>KAILA, Ilari</t>
+          <t>DUJUNCO, Mercedes Maria</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L1 - L2</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J44" s="2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -2756,337 +2810,337 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>Enjoyment of Classical Music</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>KAILA, Ilari</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Chinese Women on Screen</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>DU, Daisy Yan</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>History of P. R. China's Diplomacy, 1949-1989</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>LIM, John Chuan Tiong</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Modern China</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>ZHANG, Lok Cheung Lawrence</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>H + Arts</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>Enjoyment of Western Opera</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>DROSCHA, Isaac David</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>H + Arts</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>Music Theory I: Introduction to Tonal Music</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>KAILA, Ilari</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>H + Arts</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
           <t>2105</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E51" s="1" t="inlineStr">
         <is>
           <t>Music, Drama and Theatre</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>DROSCHA, Isaac David
 LIN PETTY, Mandy Lynn</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I45" s="5" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J51" s="2" t="n">
         <v>60</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>H + Arts</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>2107</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>Introduction to Electronic Music Composition</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>PAGE, Timothy Markham</t>
-        </is>
-      </c>
-      <c r="H46" s="5" t="inlineStr">
-        <is>
-          <t>L1 - L2</t>
-        </is>
-      </c>
-      <c r="I46" s="5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>Traditional Chinese Poetry: Early Chinese Poetry</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>LI, Siya</t>
-        </is>
-      </c>
-      <c r="H47" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I47" s="5" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>2588</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>Nazism and German Society, 1914-1945</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>DERMAN, Joshua</t>
-        </is>
-      </c>
-      <c r="H48" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I48" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>2638</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>Peoples and Cultures in Mainland Southeast Asia</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>MA, Jianxiong</t>
-        </is>
-      </c>
-      <c r="H49" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>2640</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>Unofficial China: Social History 1800s-1930s</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>HO, Virgil Kit Yiu</t>
-        </is>
-      </c>
-      <c r="H50" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I50" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>H + C-Comm + Arts</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>2660</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>Introduction to Chinese Painting</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>FU, Li-tsui</t>
-        </is>
-      </c>
-      <c r="H51" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I51" s="5" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="52">
@@ -3107,12 +3161,12 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>Understanding Western Painting</t>
+          <t>Introduction to Electronic Music Composition</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
@@ -3122,21 +3176,21 @@
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>KWONG, Yee Ngan</t>
+          <t>PAGE, Timothy Markham</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L1 - L2</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J52" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -3157,12 +3211,12 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>Language and Migration</t>
+          <t>Traditional Chinese Poetry: Early Chinese Poetry</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
@@ -3172,7 +3226,7 @@
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>SIMPSON, James Edward Barbour</t>
+          <t>LI, Siya</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
@@ -3182,11 +3236,11 @@
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J53" s="2" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
@@ -3207,12 +3261,12 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>3630</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>Community and Cultural Identity</t>
+          <t>Nazism and German Society, 1914-1945</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
@@ -3222,7 +3276,7 @@
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>CHEUNG, Siu Woo</t>
+          <t>DERMAN, Joshua</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
@@ -3232,17 +3286,17 @@
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J54" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>H + C-Comm</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -3257,12 +3311,12 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Taoism and the Chinese Tradition</t>
+          <t>Peoples and Cultures in Mainland Southeast Asia</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
@@ -3272,7 +3326,7 @@
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>WONG, Simon Man Ho</t>
+          <t>MA, Jianxiong</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
@@ -3282,37 +3336,37 @@
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J55" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S&amp;T</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>SENG</t>
+          <t>SHSS</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>IEDA</t>
+          <t>HUMA</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>Introduction of Industrial Engineering and Decision Analytics</t>
+          <t>Unofficial China: Social History 1800s-1930s</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
@@ -3322,7 +3376,7 @@
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>QIU, Xuan</t>
+          <t>HO, Virgil Kit Yiu</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
@@ -3332,37 +3386,37 @@
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J56" s="2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>SA-SSC</t>
+          <t>H + C-Comm + Arts</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>SBM</t>
+          <t>SHSS</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>ISOM</t>
+          <t>HUMA</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>Technology and Innovation: Social and Business Perspectives</t>
+          <t>Introduction to Chinese Painting</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
@@ -3372,7 +3426,7 @@
       </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>JAISINGH, Jeevan</t>
+          <t>FU, Li-tsui</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
@@ -3382,302 +3436,602 @@
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J57" s="2" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>SA-SSC + QR</t>
+          <t>H + Arts</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>Understanding Western Painting</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>KWONG, Yee Ngan</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>3060</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>Language and Migration</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>SIMPSON, James Edward Barbour</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Community and Cultural Identity</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>CHEUNG, Siu Woo</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>H + C-Comm</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>Taoism and the Chinese Tradition</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>WONG, Simon Man Ho</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SENG</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>IEDA</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Introduction of Industrial Engineering and Decision Analytics</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>QIU, Xuan</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>SA-SSC</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
           <t>SBM</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>ISOM</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>Technology and Innovation: Social and Business Perspectives</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>JAISINGH, Jeevan</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>QR + SA-SSC</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SBM</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>ISOM</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E64" s="1" t="inlineStr">
         <is>
           <t>Insightful Decisions</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
         <is>
           <t>GURUMURTHI, Suri</t>
         </is>
       </c>
-      <c r="H58" s="5" t="inlineStr">
+      <c r="H64" s="5" t="inlineStr">
         <is>
           <t>L1 - L4</t>
         </is>
       </c>
-      <c r="I58" s="5" t="inlineStr">
+      <c r="I64" s="5" t="inlineStr">
         <is>
           <t>L1 - L2, L4: 52
 L3: 50</t>
         </is>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J64" s="2" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>LANG</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D65" s="1" t="inlineStr">
         <is>
           <t>1004</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>Mediated Me: An Introduction to Digital Literacy</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>CHAN, Jessica</t>
         </is>
       </c>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="H65" s="5" t="inlineStr">
         <is>
           <t>L01</t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr">
+      <c r="I65" s="5" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J65" s="2" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>C-Comm</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>LANG</t>
         </is>
       </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="D66" s="1" t="inlineStr">
         <is>
           <t>1117C</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E66" s="1" t="inlineStr">
         <is>
           <t>Advanced Chinese Communication</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G60" s="3" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
         <is>
           <t>T01, T05: WONG, Lok Yee Lorraine
 T02, T04: YU, Wai Ying</t>
         </is>
       </c>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="H66" s="5" t="inlineStr">
         <is>
           <t>T01 - T02
 T04 - T05</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I66" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J66" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>C-Comm</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>LANG</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D67" s="1" t="inlineStr">
         <is>
           <t>1117P</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E67" s="1" t="inlineStr">
         <is>
           <t>Advanced Chinese Communication</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>T03, T05, T08, T11: XU, Xiufen
 T04, T06 - T07, T10: LAU, Lo
 T09: NUO, Min</t>
         </is>
       </c>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="H67" s="5" t="inlineStr">
         <is>
           <t>T03 - T11</t>
         </is>
       </c>
-      <c r="I61" s="5" t="inlineStr">
+      <c r="I67" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J67" s="2" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>LIFS</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D68" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E68" s="1" t="inlineStr">
         <is>
           <t>Appreciation of Biological Sciences</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G62" s="3" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
         <is>
           <t>KO, Ice Wai Ping
 MILLER, Andrew Leitch
 WU, Zhenguo</t>
         </is>
       </c>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="H68" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I68" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J68" s="2" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>QR</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>MATH</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="D69" s="1" t="inlineStr">
         <is>
           <t>1003</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>Calculus and Linear Algebra</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>L1 - L2: YAO, Jing
 L3: WU, Yueping
@@ -3685,12 +4039,12 @@
 L5: QIN, Xiaoxue</t>
         </is>
       </c>
-      <c r="H63" s="5" t="inlineStr">
+      <c r="H69" s="5" t="inlineStr">
         <is>
           <t>L1 - L5</t>
         </is>
       </c>
-      <c r="I63" s="5" t="inlineStr">
+      <c r="I69" s="5" t="inlineStr">
         <is>
           <t>L1: 140
 L2: 141
@@ -3699,96 +4053,96 @@
 L5: 121</t>
         </is>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J69" s="2" t="n">
         <v>648</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>QR</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>MATH</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>1012</t>
         </is>
       </c>
-      <c r="E64" s="1" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>Calculus IA</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>L1 - L2: HU, Jishan
 L3: TU, Xushan
 L4: YANG, Xuzhou</t>
         </is>
       </c>
-      <c r="H64" s="5" t="inlineStr">
+      <c r="H70" s="5" t="inlineStr">
         <is>
           <t>L1 - L4</t>
         </is>
       </c>
-      <c r="I64" s="5" t="inlineStr">
+      <c r="I70" s="5" t="inlineStr">
         <is>
           <t>L1: 147
 L2 - L3: 140
 L4: 148</t>
         </is>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="J70" s="2" t="n">
         <v>575</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>QR</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>MATH</t>
         </is>
       </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>1013</t>
         </is>
       </c>
-      <c r="E65" s="1" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>Calculus IB</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
         <is>
           <t>L01: FONG, Tsz Ho
 L02 - L03: LAM, Tsz Kin
@@ -3799,1516 +4153,1574 @@
 L10: XIONG, Maosheng</t>
         </is>
       </c>
-      <c r="H65" s="5" t="inlineStr">
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>L01 - L11</t>
         </is>
       </c>
-      <c r="I65" s="5" t="inlineStr">
+      <c r="I71" s="5" t="inlineStr">
         <is>
           <t>L01: 143
-L02 - L11: 110</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="n">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+L02 - L09, L11: 110
+L10: 111</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>QR</t>
         </is>
       </c>
-      <c r="B66" s="1" t="inlineStr">
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>MATH</t>
         </is>
       </c>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>Accelerated Calculus</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>QR</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>SSCI</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>MATH</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
         <is>
           <t>1023</t>
         </is>
       </c>
-      <c r="E66" s="1" t="inlineStr">
+      <c r="E73" s="1" t="inlineStr">
         <is>
           <t>Honors Calculus I</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t>IP, Ivan Chi Ho</t>
         </is>
       </c>
-      <c r="H66" s="5" t="inlineStr">
+      <c r="H73" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I66" s="5" t="inlineStr">
+      <c r="I73" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J73" s="2" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>SA + S&amp;T</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T + SA</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>SENG</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C74" s="1" t="inlineStr">
         <is>
           <t>MECH</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>1902</t>
         </is>
       </c>
-      <c r="E67" s="1" t="inlineStr">
+      <c r="E74" s="1" t="inlineStr">
         <is>
           <t>Energy Systems in a Sustainable World</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
         <is>
           <t>CIUCCI, Francesco</t>
         </is>
       </c>
-      <c r="H67" s="5" t="inlineStr">
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I67" s="5" t="inlineStr">
+      <c r="I74" s="5" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J74" s="2" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B68" s="1" t="inlineStr">
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>SENG</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>MECH</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D75" s="1" t="inlineStr">
         <is>
           <t>1906</t>
         </is>
       </c>
-      <c r="E68" s="1" t="inlineStr">
+      <c r="E75" s="1" t="inlineStr">
         <is>
           <t>Mechanical Engineering for Modern Life</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>TAO, Hong</t>
         </is>
       </c>
-      <c r="H68" s="5" t="inlineStr">
+      <c r="H75" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I68" s="5" t="inlineStr">
+      <c r="I75" s="5" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="J75" s="2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>SBM</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C76" s="1" t="inlineStr">
         <is>
           <t>MGMT</t>
         </is>
       </c>
-      <c r="D69" s="1" t="inlineStr">
+      <c r="D76" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="E69" s="1" t="inlineStr">
+      <c r="E76" s="1" t="inlineStr">
         <is>
           <t>Introduction to Management</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
         <is>
           <t>ZHELYAZKOV, Pavel Ivanov</t>
         </is>
       </c>
-      <c r="H69" s="5" t="inlineStr">
+      <c r="H76" s="5" t="inlineStr">
         <is>
           <t>L1 - L2</t>
         </is>
       </c>
-      <c r="I69" s="5" t="inlineStr">
+      <c r="I76" s="5" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J76" s="2" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>SA-SSC</t>
         </is>
       </c>
-      <c r="B70" s="1" t="inlineStr">
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>SBM</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C77" s="1" t="inlineStr">
         <is>
           <t>MGMT</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="D77" s="1" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E70" s="1" t="inlineStr">
+      <c r="E77" s="1" t="inlineStr">
         <is>
           <t>Traps and Pitfalls in Judgment and Decision Making</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
         <is>
           <t>NG, Ka Man</t>
         </is>
       </c>
-      <c r="H70" s="5" t="inlineStr">
+      <c r="H77" s="5" t="inlineStr">
         <is>
           <t>L1 - L2</t>
         </is>
       </c>
-      <c r="I70" s="5" t="inlineStr">
+      <c r="I77" s="5" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="J77" s="2" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>S&amp;T-SSC</t>
         </is>
       </c>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C78" s="1" t="inlineStr">
         <is>
           <t>OCES</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="D78" s="1" t="inlineStr">
         <is>
           <t>1030</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>Environmental Science</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
         <is>
           <t>LAM, Ka Sin Cindy
 YAU, Sin Ting Cynthia</t>
         </is>
       </c>
-      <c r="H71" s="5" t="inlineStr">
+      <c r="H78" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I71" s="5" t="inlineStr">
+      <c r="I78" s="5" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="J71" s="2" t="n">
+      <c r="J78" s="2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B72" s="1" t="inlineStr">
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="C79" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
+      <c r="E79" s="1" t="inlineStr">
         <is>
           <t>Physics and the Modern Society</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
         <is>
           <t>FOREMAN, Bradley Alan</t>
         </is>
       </c>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="H79" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I79" s="5" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="J79" s="2" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B73" s="1" t="inlineStr">
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="C80" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D80" s="1" t="inlineStr">
         <is>
           <t>1002</t>
         </is>
       </c>
-      <c r="E73" s="1" t="inlineStr">
+      <c r="E80" s="1" t="inlineStr">
         <is>
           <t>Introduction to Astrophysics and Astronomy</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
         <is>
           <t>SOU, Iam Keong</t>
         </is>
       </c>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="H80" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I80" s="5" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J80" s="2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>S&amp;T-SSC</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C74" s="1" t="inlineStr">
+      <c r="C81" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr">
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>1003</t>
         </is>
       </c>
-      <c r="E74" s="1" t="inlineStr">
+      <c r="E81" s="1" t="inlineStr">
         <is>
           <t>Energy and Related Environmental Issues</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
         <is>
           <t>L1: CHEUNG, Man Fung
 L2: JAECK, Berthold</t>
         </is>
       </c>
-      <c r="H74" s="5" t="inlineStr">
+      <c r="H81" s="5" t="inlineStr">
         <is>
           <t>L1 - L2</t>
         </is>
       </c>
-      <c r="I74" s="5" t="inlineStr">
+      <c r="I81" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J81" s="2" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="C82" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D75" s="1" t="inlineStr">
+      <c r="D82" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="E75" s="1" t="inlineStr">
+      <c r="E82" s="1" t="inlineStr">
         <is>
           <t>General Physics I</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
         <is>
           <t>NG, Yee Fai</t>
         </is>
       </c>
-      <c r="H75" s="5" t="inlineStr">
+      <c r="H82" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I75" s="5" t="inlineStr">
+      <c r="I82" s="5" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J82" s="2" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr">
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C76" s="1" t="inlineStr">
+      <c r="C83" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D83" s="1" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="E76" s="1" t="inlineStr">
+      <c r="E83" s="1" t="inlineStr">
         <is>
           <t>General Physics I with Calculus</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
         <is>
           <t>L1: WONG, Kam Sing
 L2: ZENG, Bei
 L3: ALTMAN, Michael Scott
 L4: CHEN, Tian Wen
 L5: CHEUNG, Man Fung
-L6: PANT, Nidhi</t>
-        </is>
-      </c>
-      <c r="H76" s="5" t="inlineStr">
-        <is>
-          <t>L1 - L6</t>
-        </is>
-      </c>
-      <c r="I76" s="5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+L6: PANT, Nidhi
+L7: TBA</t>
+        </is>
+      </c>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t>L1 - L7</t>
+        </is>
+      </c>
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>L1 - L6: 132
+L7: 12</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>S&amp;T</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C77" s="1" t="inlineStr">
+      <c r="C84" s="1" t="inlineStr">
         <is>
           <t>PHYS</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D84" s="1" t="inlineStr">
         <is>
           <t>1312</t>
         </is>
       </c>
-      <c r="E77" s="1" t="inlineStr">
+      <c r="E84" s="1" t="inlineStr">
         <is>
           <t>Honors General Physics I</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
         <is>
           <t>LEUNG, Pak Wo</t>
         </is>
       </c>
-      <c r="H77" s="5" t="inlineStr">
+      <c r="H84" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I77" s="5" t="inlineStr">
+      <c r="I84" s="5" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="J84" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>SA + S&amp;T</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T + SA</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>IPO</t>
         </is>
       </c>
-      <c r="C78" s="1" t="inlineStr">
+      <c r="C85" s="1" t="inlineStr">
         <is>
           <t>PPOL</t>
         </is>
       </c>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="D85" s="1" t="inlineStr">
         <is>
           <t>2110</t>
         </is>
       </c>
-      <c r="E78" s="1" t="inlineStr">
+      <c r="E85" s="1" t="inlineStr">
         <is>
           <t>Science, Technology and Society in China</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
         <is>
           <t>SHARIF, Naubahar</t>
         </is>
       </c>
-      <c r="H78" s="5" t="inlineStr">
+      <c r="H85" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I78" s="5" t="inlineStr">
+      <c r="I85" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="J78" s="2" t="n">
+      <c r="J85" s="2" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B79" s="1" t="inlineStr">
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>JS</t>
         </is>
       </c>
-      <c r="C79" s="1" t="inlineStr">
+      <c r="C86" s="1" t="inlineStr">
         <is>
           <t>RMBI</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D86" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="E79" s="1" t="inlineStr">
+      <c r="E86" s="1" t="inlineStr">
         <is>
           <t>Risk Management in Society</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G79" s="3" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
         <is>
           <t>WANG, Jiying</t>
         </is>
       </c>
-      <c r="H79" s="5" t="inlineStr">
+      <c r="H86" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I79" s="5" t="inlineStr">
+      <c r="I86" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="J86" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>S&amp;T-SSC</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>SSCI</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr">
+      <c r="C87" s="1" t="inlineStr">
         <is>
           <t>SCIE</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="D87" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="E80" s="1" t="inlineStr">
+      <c r="E87" s="1" t="inlineStr">
         <is>
           <t>Great Ideas in Science</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G80" s="3" t="inlineStr">
-        <is>
-          <t>NG, Tai Kai
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>AMIN, Aftab
+NG, Tai Kai
+WILLIAMS, Ian Duncan
+WONG, Joseph Tin Yum
+YU, Chi Wai
+NG, Tai Kai
 WILLIAMS, Ian Duncan
 WONG, Joseph Tin Yum
 YU, Chi Wai</t>
         </is>
       </c>
-      <c r="H80" s="5" t="inlineStr">
+      <c r="H87" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I80" s="5" t="inlineStr">
+      <c r="I87" s="5" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="J87" s="2" t="n">
         <v>80</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>International Law</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>SAUTMAN, Barry Victor</t>
-        </is>
-      </c>
-      <c r="H81" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I81" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J81" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>SA-SSC</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>1350</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="inlineStr">
-        <is>
-          <t>Contemporary China: Continuity and Change</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G82" s="3" t="inlineStr">
-        <is>
-          <t>LIN, Yi-Min</t>
-        </is>
-      </c>
-      <c r="H82" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I82" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="E83" s="1" t="inlineStr">
-        <is>
-          <t>Hong Kong and the Greater Bay Area</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>PATCHELL, Gerald Roe</t>
-        </is>
-      </c>
-      <c r="H83" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I83" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>1470</t>
-        </is>
-      </c>
-      <c r="E84" s="1" t="inlineStr">
-        <is>
-          <t>The Political and Economic Development of Modern Japan</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G84" s="3" t="inlineStr">
-        <is>
-          <t>HE, Wenkai</t>
-        </is>
-      </c>
-      <c r="H84" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I84" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>SA-SSC</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>1662</t>
-        </is>
-      </c>
-      <c r="E85" s="1" t="inlineStr">
-        <is>
-          <t>Contemporary Hong Kong: Society</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>GROVES, Julian Mcallister</t>
-        </is>
-      </c>
-      <c r="H85" s="5" t="inlineStr">
-        <is>
-          <t>LX</t>
-        </is>
-      </c>
-      <c r="I85" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>1780</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>Population and Development in China</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>MA, John Zhongdong</t>
-        </is>
-      </c>
-      <c r="H86" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I86" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J86" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>SHSS</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>SOSC</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>1840</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>Government, Law and Society in China</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G87" s="3" t="inlineStr">
-        <is>
-          <t>CAI, Yongshun</t>
-        </is>
-      </c>
-      <c r="H87" s="5" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="I87" s="5" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="J87" s="2" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>International Law</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>SAUTMAN, Barry Victor</t>
+        </is>
+      </c>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
           <t>SA-SSC</t>
         </is>
       </c>
-      <c r="B88" s="1" t="inlineStr">
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C88" s="1" t="inlineStr">
+      <c r="C89" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>Contemporary China: Continuity and Change</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>LIN, Yi-Min</t>
+        </is>
+      </c>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I89" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>Hong Kong and the Greater Bay Area</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>PATCHELL, Gerald Roe</t>
+        </is>
+      </c>
+      <c r="H90" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I90" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>The Political and Economic Development of Modern Japan</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>HE, Wenkai</t>
+        </is>
+      </c>
+      <c r="H91" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I91" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>SA-SSC</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>Contemporary Hong Kong: Society</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>GROVES, Julian Mcallister</t>
+        </is>
+      </c>
+      <c r="H92" s="5" t="inlineStr">
+        <is>
+          <t>LX</t>
+        </is>
+      </c>
+      <c r="I92" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>Population and Development in China</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>MA, John Zhongdong</t>
+        </is>
+      </c>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I93" s="5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>Government, Law and Society in China</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>CAI, Yongshun</t>
+        </is>
+      </c>
+      <c r="H94" s="5" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="I94" s="5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>SA-SSC</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>SHSS</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>SOSC</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
         <is>
           <t>1850</t>
         </is>
       </c>
-      <c r="E88" s="1" t="inlineStr">
+      <c r="E95" s="1" t="inlineStr">
         <is>
           <t>Understanding Society</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G88" s="3" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
         <is>
           <t>L1: LEUNG, Yee Man Yvonne
 LX: GROVES, Julian Mcallister</t>
         </is>
       </c>
-      <c r="H88" s="5" t="inlineStr">
+      <c r="H95" s="5" t="inlineStr">
         <is>
           <t>L1
 LX</t>
         </is>
       </c>
-      <c r="I88" s="5" t="inlineStr">
+      <c r="I95" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="J95" s="2" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>SA-SSC</t>
         </is>
       </c>
-      <c r="B89" s="1" t="inlineStr">
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C89" s="1" t="inlineStr">
+      <c r="C96" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D89" s="1" t="inlineStr">
+      <c r="D96" s="1" t="inlineStr">
         <is>
           <t>1960</t>
         </is>
       </c>
-      <c r="E89" s="1" t="inlineStr">
+      <c r="E96" s="1" t="inlineStr">
         <is>
           <t>Discovering Mind and Behavior</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G89" s="3" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
         <is>
           <t>L1: SHU, Tse Mei Annie
 L2: SIU, Nicolson</t>
         </is>
       </c>
-      <c r="H89" s="5" t="inlineStr">
+      <c r="H96" s="5" t="inlineStr">
         <is>
           <t>L1 - L2</t>
         </is>
       </c>
-      <c r="I89" s="5" t="inlineStr">
+      <c r="I96" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J96" s="2" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>SA-SSC</t>
         </is>
       </c>
-      <c r="B90" s="1" t="inlineStr">
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C90" s="1" t="inlineStr">
+      <c r="C97" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D90" s="1" t="inlineStr">
+      <c r="D97" s="1" t="inlineStr">
         <is>
           <t>1980</t>
         </is>
       </c>
-      <c r="E90" s="1" t="inlineStr">
+      <c r="E97" s="1" t="inlineStr">
         <is>
           <t>Psychology of Personal Growth</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G90" s="3" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
         <is>
           <t>YIK, Michelle</t>
         </is>
       </c>
-      <c r="H90" s="5" t="inlineStr">
+      <c r="H97" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I90" s="5" t="inlineStr">
+      <c r="I97" s="5" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="J97" s="2" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B91" s="1" t="inlineStr">
+      <c r="B98" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C91" s="1" t="inlineStr">
+      <c r="C98" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D91" s="1" t="inlineStr">
+      <c r="D98" s="1" t="inlineStr">
         <is>
           <t>2740</t>
         </is>
       </c>
-      <c r="E91" s="1" t="inlineStr">
+      <c r="E98" s="1" t="inlineStr">
         <is>
           <t>Gender and Society</t>
         </is>
       </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
         <is>
           <t>GROVES, Julian Mcallister</t>
         </is>
       </c>
-      <c r="H91" s="5" t="inlineStr">
+      <c r="H98" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I91" s="5" t="inlineStr">
+      <c r="I98" s="5" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J91" s="2" t="n">
+      <c r="J98" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B92" s="1" t="inlineStr">
+      <c r="B99" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C92" s="1" t="inlineStr">
+      <c r="C99" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D92" s="1" t="inlineStr">
+      <c r="D99" s="1" t="inlineStr">
         <is>
           <t>3130</t>
         </is>
       </c>
-      <c r="E92" s="1" t="inlineStr">
+      <c r="E99" s="1" t="inlineStr">
         <is>
           <t>Hong Kong Culture</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G92" s="3" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
         <is>
           <t>KU, Shuk Mei Agnes</t>
         </is>
       </c>
-      <c r="H92" s="5" t="inlineStr">
+      <c r="H99" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I92" s="5" t="inlineStr">
+      <c r="I99" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J92" s="2" t="n">
+      <c r="J99" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B93" s="1" t="inlineStr">
+      <c r="B100" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C93" s="1" t="inlineStr">
+      <c r="C100" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D93" s="1" t="inlineStr">
+      <c r="D100" s="1" t="inlineStr">
         <is>
           <t>3240</t>
         </is>
       </c>
-      <c r="E93" s="1" t="inlineStr">
+      <c r="E100" s="1" t="inlineStr">
         <is>
           <t>Application of Geographical Information Systems</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G93" s="3" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G100" s="3" t="inlineStr">
         <is>
           <t>MA, John Zhongdong</t>
         </is>
       </c>
-      <c r="H93" s="5" t="inlineStr">
+      <c r="H100" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I93" s="5" t="inlineStr">
+      <c r="I100" s="5" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="J93" s="2" t="n">
+      <c r="J100" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="B94" s="1" t="inlineStr">
+      <c r="B101" s="1" t="inlineStr">
         <is>
           <t>SHSS</t>
         </is>
       </c>
-      <c r="C94" s="1" t="inlineStr">
+      <c r="C101" s="1" t="inlineStr">
         <is>
           <t>SOSC</t>
         </is>
       </c>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="D101" s="1" t="inlineStr">
         <is>
           <t>3520</t>
         </is>
       </c>
-      <c r="E94" s="1" t="inlineStr">
+      <c r="E101" s="1" t="inlineStr">
         <is>
           <t>Understanding Comparative Politics</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G94" s="3" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="inlineStr">
         <is>
           <t>WONG, James K.</t>
         </is>
       </c>
-      <c r="H94" s="5" t="inlineStr">
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="I94" s="5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J94" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>SA-SSC + S&amp;T-SSC</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr">
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;T-SSC + SA-SSC</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
         <is>
           <t>IPO</t>
         </is>
       </c>
-      <c r="C95" s="1" t="inlineStr">
+      <c r="C102" s="1" t="inlineStr">
         <is>
           <t>SUST</t>
         </is>
       </c>
-      <c r="D95" s="1" t="inlineStr">
+      <c r="D102" s="1" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="E95" s="1" t="inlineStr">
+      <c r="E102" s="1" t="inlineStr">
         <is>
           <t>Introduction to Sustainability</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G95" s="3" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr">
         <is>
           <t>L1: LAU, Pui Sang
 L2: GU, Dasa
@@ -5317,17 +5729,17 @@
 L5: STEUER, Benjamin</t>
         </is>
       </c>
-      <c r="H95" s="5" t="inlineStr">
+      <c r="H102" s="5" t="inlineStr">
         <is>
           <t>L1 - L5</t>
         </is>
       </c>
-      <c r="I95" s="5" t="inlineStr">
+      <c r="I102" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="J95" s="2" t="n">
+      <c r="J102" s="2" t="n">
         <v>275</v>
       </c>
     </row>
